--- a/Issue_List/Список изменений.xlsx
+++ b/Issue_List/Список изменений.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\HEVEL\MPPT_controller\Issue_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716D3216-833A-4E12-9DFA-9AB4BFE68700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD8E29-D9A3-4A03-8F5A-6B264D84FBA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="2490" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Список изменений платы заряда аккумулятора</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>Реализация часов реального времени. Срок жизни батареи при отсутствии питания - 6 лет</t>
+  </si>
+  <si>
+    <t>Дбавлен DIP-переключатель SB4</t>
+  </si>
+  <si>
+    <t>Для выбора адреса CAN</t>
+  </si>
+  <si>
+    <t>Добавлен узел питания вентилятора</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>Испарвоно посадочное место под микросхему LMR16006YD</t>
+  </si>
+  <si>
+    <t>по замечаниям Резонита</t>
+  </si>
+  <si>
+    <t>Уменьшена частота преобразования напряжения панели (ШИМ)</t>
+  </si>
+  <si>
+    <t>для снижения нагрева транзисторов</t>
   </si>
 </sst>
 </file>
@@ -538,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +853,50 @@
         <v>50</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
